--- a/data_year/zb/人民生活/农村居民人均支出情况.xlsx
+++ b/data_year/zb/人民生活/农村居民人均支出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1354 +538,858 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>508</v>
       </c>
       <c r="C2" t="n">
-        <v>36.6</v>
+        <v>15.5</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>50.6</v>
+        <v>10.8</v>
       </c>
       <c r="F2" t="n">
-        <v>89</v>
+        <v>356</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>14.4</v>
       </c>
       <c r="H2" t="n">
-        <v>271</v>
+        <v>1042</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
-        <v>204</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>14.3</v>
+        <v>11</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>1714</v>
+        <v>4945</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="P2" t="n">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.4</v>
+        <v>15.9</v>
       </c>
       <c r="R2" t="n">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>14.2</v>
       </c>
       <c r="T2" t="n">
-        <v>829</v>
+        <v>1874</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.7</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113</v>
+        <v>603</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="E3" t="n">
-        <v>6.5</v>
+        <v>27.3</v>
       </c>
       <c r="F3" t="n">
-        <v>99</v>
+        <v>478</v>
       </c>
       <c r="G3" t="n">
-        <v>11.1</v>
+        <v>34.1</v>
       </c>
       <c r="H3" t="n">
-        <v>298</v>
+        <v>1213</v>
       </c>
       <c r="I3" t="n">
-        <v>9.800000000000001</v>
+        <v>16.4</v>
       </c>
       <c r="J3" t="n">
-        <v>216</v>
+        <v>590</v>
       </c>
       <c r="K3" t="n">
-        <v>6.1</v>
+        <v>10.5</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>1803</v>
+        <v>5892</v>
       </c>
       <c r="O3" t="n">
-        <v>4.3</v>
+        <v>12.6</v>
       </c>
       <c r="P3" t="n">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>32.9</v>
       </c>
       <c r="R3" t="n">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="T3" t="n">
-        <v>841</v>
+        <v>2186</v>
       </c>
       <c r="U3" t="n">
-        <v>1.6</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133</v>
+        <v>717</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6</v>
+        <v>19.1</v>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2</v>
+        <v>18.4</v>
       </c>
       <c r="F4" t="n">
-        <v>107</v>
+        <v>560</v>
       </c>
       <c r="G4" t="n">
-        <v>8.199999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="H4" t="n">
-        <v>326</v>
+        <v>1381</v>
       </c>
       <c r="I4" t="n">
-        <v>9.300000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="J4" t="n">
-        <v>243</v>
+        <v>677</v>
       </c>
       <c r="K4" t="n">
-        <v>12.3</v>
+        <v>14.7</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>1917</v>
+        <v>6667</v>
       </c>
       <c r="O4" t="n">
-        <v>6.8</v>
+        <v>10.4</v>
       </c>
       <c r="P4" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.4</v>
+        <v>10.8</v>
       </c>
       <c r="R4" t="n">
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="S4" t="n">
-        <v>6.7</v>
+        <v>15.5</v>
       </c>
       <c r="T4" t="n">
-        <v>861</v>
+        <v>2395</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170</v>
+        <v>875</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="E5" t="n">
-        <v>-26</v>
+        <v>16.2</v>
       </c>
       <c r="F5" t="n">
-        <v>120</v>
+        <v>668</v>
       </c>
       <c r="G5" t="n">
-        <v>11.9</v>
+        <v>19.2</v>
       </c>
       <c r="H5" t="n">
-        <v>339</v>
+        <v>1580</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>14.4</v>
       </c>
       <c r="J5" t="n">
-        <v>280</v>
+        <v>755</v>
       </c>
       <c r="K5" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2567</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>2050</v>
+        <v>7485</v>
       </c>
       <c r="O5" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>87</v>
+        <v>455</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>13.8</v>
       </c>
       <c r="R5" t="n">
-        <v>112</v>
+        <v>454</v>
       </c>
       <c r="S5" t="n">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="T5" t="n">
-        <v>900</v>
+        <v>2554</v>
       </c>
       <c r="U5" t="n">
-        <v>4.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203</v>
+        <v>1013</v>
       </c>
       <c r="C6" t="n">
-        <v>19.7</v>
+        <v>15.7</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>754</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1763</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>860</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2946</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8383</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>506</v>
+      </c>
+      <c r="Q6" t="n">
         <v>11.3</v>
       </c>
-      <c r="F6" t="n">
-        <v>137</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>363</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>304</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>2326</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="P6" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>10.8</v>
-      </c>
       <c r="R6" t="n">
-        <v>123</v>
+        <v>510</v>
       </c>
       <c r="S6" t="n">
-        <v>9.699999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1055</v>
+        <v>2814</v>
       </c>
       <c r="U6" t="n">
-        <v>17.1</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>260</v>
+        <v>1163.101528739</v>
       </c>
       <c r="C7" t="n">
-        <v>28.1</v>
+        <v>14.9</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>173.9615038406</v>
       </c>
       <c r="E7" t="n">
-        <v>11.7</v>
+        <v>6.8</v>
       </c>
       <c r="F7" t="n">
-        <v>177</v>
+        <v>845.9653988420999</v>
       </c>
       <c r="G7" t="n">
-        <v>29.6</v>
+        <v>12.2</v>
       </c>
       <c r="H7" t="n">
-        <v>422</v>
+        <v>1926.1667062569</v>
       </c>
       <c r="I7" t="n">
-        <v>16.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>374</v>
+        <v>969.3115588184</v>
       </c>
       <c r="K7" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>12.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3337</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13.3</v>
+      </c>
       <c r="N7" t="n">
-        <v>2749</v>
+        <v>9222.5938924202</v>
       </c>
       <c r="O7" t="n">
-        <v>12.6</v>
+        <v>8.6</v>
       </c>
       <c r="P7" t="n">
-        <v>122</v>
+        <v>545.605581681</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.4</v>
+        <v>7.7</v>
       </c>
       <c r="R7" t="n">
-        <v>153</v>
+        <v>550.484958238</v>
       </c>
       <c r="S7" t="n">
-        <v>24</v>
+        <v>7.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1191</v>
+        <v>3047.9966560041</v>
       </c>
       <c r="U7" t="n">
-        <v>12.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>309</v>
+        <v>1359.925336</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6</v>
+        <v>16.9</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>186.015351</v>
       </c>
       <c r="E8" t="n">
-        <v>14.3</v>
+        <v>6.9</v>
       </c>
       <c r="F8" t="n">
-        <v>203</v>
+        <v>929.247917</v>
       </c>
       <c r="G8" t="n">
-        <v>14.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>544</v>
+        <v>2147.082545</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>396</v>
+        <v>1070.30183</v>
       </c>
       <c r="K8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>10.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3750.93351</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12.4</v>
+      </c>
       <c r="N8" t="n">
-        <v>3072</v>
+        <v>10129.77751</v>
       </c>
       <c r="O8" t="n">
-        <v>10.1</v>
+        <v>7.8</v>
       </c>
       <c r="P8" t="n">
-        <v>140</v>
+        <v>595.669222</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>173</v>
+        <v>575.439488</v>
       </c>
       <c r="S8" t="n">
-        <v>13.4</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1249</v>
+        <v>3266.086184</v>
       </c>
       <c r="U8" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>354</v>
+        <v>1509.130052784</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>200.9205601336</v>
       </c>
       <c r="E9" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>225</v>
+        <v>1058.7481032081</v>
       </c>
       <c r="G9" t="n">
-        <v>10.7</v>
+        <v>13.9</v>
       </c>
       <c r="H9" t="n">
-        <v>680</v>
+        <v>2353.5002775204</v>
       </c>
       <c r="I9" t="n">
-        <v>24.9</v>
+        <v>9.6</v>
       </c>
       <c r="J9" t="n">
-        <v>409</v>
+        <v>1171.2500517958</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>9.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4130.1887954371</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.1</v>
+      </c>
       <c r="N9" t="n">
-        <v>3536</v>
+        <v>10954.5291862489</v>
       </c>
       <c r="O9" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>634.0386128338999</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.5</v>
+        <v>6.4</v>
       </c>
       <c r="R9" t="n">
-        <v>201</v>
+        <v>611.5838766744</v>
       </c>
       <c r="S9" t="n">
-        <v>15.8</v>
+        <v>6.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1433</v>
+        <v>3415.3576512985</v>
       </c>
       <c r="U9" t="n">
-        <v>14.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>392</v>
+        <v>1689.9675601817</v>
       </c>
       <c r="C10" t="n">
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>218.3102929392</v>
       </c>
       <c r="E10" t="n">
-        <v>2.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>266</v>
+        <v>1240.1073611966</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="H10" t="n">
-        <v>820</v>
+        <v>2660.5584255875</v>
       </c>
       <c r="I10" t="n">
-        <v>20.6</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>433</v>
+        <v>1301.5779876617</v>
       </c>
       <c r="K10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4644.7028107506</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12124.2658491517</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>720.4660574515</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>647.6998810209</v>
+      </c>
+      <c r="S10" t="n">
         <v>5.9</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>4054</v>
-      </c>
-      <c r="O10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>221</v>
-      </c>
-      <c r="S10" t="n">
-        <v>10</v>
-      </c>
       <c r="T10" t="n">
-        <v>1657</v>
+        <v>3645.5782831125</v>
       </c>
       <c r="U10" t="n">
-        <v>15.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>440</v>
+        <v>1836.849899283</v>
       </c>
       <c r="C11" t="n">
-        <v>12.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>241.473557335</v>
       </c>
       <c r="E11" t="n">
-        <v>8.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="F11" t="n">
-        <v>311</v>
+        <v>1420.7619739707</v>
       </c>
       <c r="G11" t="n">
-        <v>17.3</v>
+        <v>14.6</v>
       </c>
       <c r="H11" t="n">
-        <v>987</v>
+        <v>2871.3365966492</v>
       </c>
       <c r="I11" t="n">
-        <v>20.3</v>
+        <v>7.9</v>
       </c>
       <c r="J11" t="n">
-        <v>481</v>
+        <v>1481.8441137526</v>
       </c>
       <c r="K11" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+        <v>13.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5290.154888614</v>
+      </c>
+      <c r="M11" t="n">
+        <v>13.9</v>
+      </c>
       <c r="N11" t="n">
-        <v>4464</v>
+        <v>13327.6690016998</v>
       </c>
       <c r="O11" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="P11" t="n">
-        <v>234</v>
+        <v>763.9201334006</v>
       </c>
       <c r="Q11" t="n">
-        <v>18.7</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>243</v>
+        <v>713.2746566421999</v>
       </c>
       <c r="S11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1695</v>
+        <v>3998.2080706664</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>508</v>
+        <v>1840.58589857281</v>
       </c>
       <c r="C12" t="n">
-        <v>15.5</v>
+        <v>0.2</v>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>224.364012521776</v>
       </c>
       <c r="E12" t="n">
-        <v>10.8</v>
+        <v>-7.1</v>
       </c>
       <c r="F12" t="n">
-        <v>356</v>
+        <v>1417.51024832871</v>
       </c>
       <c r="G12" t="n">
-        <v>14.4</v>
+        <v>-0.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1042</v>
+        <v>2962.41929147498</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>534</v>
+        <v>1308.74670992315</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+        <v>-11.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5189.87236047985</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.9</v>
+      </c>
       <c r="N12" t="n">
-        <v>4945</v>
+        <v>13713.3762460453</v>
       </c>
       <c r="O12" t="n">
-        <v>6.9</v>
+        <v>-0.1</v>
       </c>
       <c r="P12" t="n">
-        <v>272</v>
+        <v>767.514760328693</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.9</v>
+        <v>0.5</v>
       </c>
       <c r="R12" t="n">
-        <v>277</v>
+        <v>712.8129480061</v>
       </c>
       <c r="S12" t="n">
-        <v>14.2</v>
+        <v>-0.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1874</v>
+        <v>4479.42237688913</v>
       </c>
       <c r="U12" t="n">
-        <v>10.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>603</v>
+        <v>2131.8</v>
       </c>
       <c r="C13" t="n">
-        <v>18.7</v>
+        <v>15.8234452221451</v>
       </c>
       <c r="D13" t="n">
-        <v>105</v>
+        <v>283.8</v>
       </c>
       <c r="E13" t="n">
-        <v>27.3</v>
+        <v>26.4819597449733</v>
       </c>
       <c r="F13" t="n">
-        <v>478</v>
+        <v>1579.6</v>
       </c>
       <c r="G13" t="n">
-        <v>34.1</v>
+        <v>11.4362313685155</v>
       </c>
       <c r="H13" t="n">
-        <v>1213</v>
+        <v>3314.7</v>
       </c>
       <c r="I13" t="n">
-        <v>16.4</v>
+        <v>11.8926685880987</v>
       </c>
       <c r="J13" t="n">
-        <v>590</v>
+        <v>1645.5</v>
       </c>
       <c r="K13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+        <v>25.7302110120777</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6142.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>18.3636732363581</v>
+      </c>
       <c r="N13" t="n">
-        <v>5892</v>
+        <v>15915.6</v>
       </c>
       <c r="O13" t="n">
-        <v>12.6</v>
+        <v>15.3</v>
       </c>
       <c r="P13" t="n">
-        <v>361</v>
+        <v>900.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.9</v>
+        <v>17.3228251160105</v>
       </c>
       <c r="R13" t="n">
-        <v>357</v>
+        <v>859.5</v>
       </c>
       <c r="S13" t="n">
-        <v>29</v>
+        <v>20.5730062008701</v>
       </c>
       <c r="T13" t="n">
-        <v>2186</v>
+        <v>5200.2</v>
       </c>
       <c r="U13" t="n">
-        <v>16.6</v>
+        <v>16.0906376417984</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>717</v>
+        <v>2230.32246016474</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1</v>
+        <v>4.620089789746</v>
       </c>
       <c r="D14" t="n">
-        <v>124</v>
+        <v>300.453600146657</v>
       </c>
       <c r="E14" t="n">
-        <v>18.4</v>
+        <v>5.8755374397974</v>
       </c>
       <c r="F14" t="n">
-        <v>560</v>
+        <v>1632.4731627127</v>
       </c>
       <c r="G14" t="n">
-        <v>17.3</v>
+        <v>3.34594160068214</v>
       </c>
       <c r="H14" t="n">
-        <v>1381</v>
+        <v>3502.51547221364</v>
       </c>
       <c r="I14" t="n">
-        <v>13.9</v>
+        <v>5.66518154460953</v>
       </c>
       <c r="J14" t="n">
-        <v>677</v>
+        <v>1683.09800700903</v>
       </c>
       <c r="K14" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+        <v>2.28552024072042</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6357.90212391901</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.49967318342111</v>
+      </c>
       <c r="N14" t="n">
-        <v>6667</v>
+        <v>16632.0876440775</v>
       </c>
       <c r="O14" t="n">
-        <v>10.4</v>
+        <v>2.45098039215685</v>
       </c>
       <c r="P14" t="n">
-        <v>400</v>
+        <v>933.840732739674</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.8</v>
+        <v>3.70592387749439</v>
       </c>
       <c r="R14" t="n">
-        <v>413</v>
+        <v>864.010844957074</v>
       </c>
       <c r="S14" t="n">
-        <v>15.5</v>
+        <v>0.529500495319605</v>
       </c>
       <c r="T14" t="n">
-        <v>2395</v>
+        <v>5485.37336413395</v>
       </c>
       <c r="U14" t="n">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>875</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22</v>
-      </c>
-      <c r="D15" t="n">
-        <v>144</v>
-      </c>
-      <c r="E15" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>668</v>
-      </c>
-      <c r="G15" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1580</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>755</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2567</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>7485</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>455</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="R15" t="n">
-        <v>454</v>
-      </c>
-      <c r="S15" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2554</v>
-      </c>
-      <c r="U15" t="n">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1013</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>163</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13</v>
-      </c>
-      <c r="F16" t="n">
-        <v>754</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1763</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>860</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2946</v>
-      </c>
-      <c r="M16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8383</v>
-      </c>
-      <c r="O16" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" t="n">
-        <v>506</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>510</v>
-      </c>
-      <c r="S16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2814</v>
-      </c>
-      <c r="U16" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1163</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>174</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>846</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1926</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>969</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3337</v>
-      </c>
-      <c r="M17" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9223</v>
-      </c>
-      <c r="O17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="P17" t="n">
-        <v>546</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>550</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3048</v>
-      </c>
-      <c r="U17" t="n">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1360</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>186</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>929</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2147</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1070</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3751</v>
-      </c>
-      <c r="M18" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10130</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="P18" t="n">
-        <v>596</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="R18" t="n">
-        <v>575</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3266</v>
-      </c>
-      <c r="U18" t="n">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1509</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>201</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1059</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2354</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1171</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4130</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10955</v>
-      </c>
-      <c r="O19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="P19" t="n">
-        <v>634</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>612</v>
-      </c>
-      <c r="S19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3415</v>
-      </c>
-      <c r="U19" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1690</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>218</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1240</v>
-      </c>
-      <c r="G20" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2661</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1302</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4645</v>
-      </c>
-      <c r="M20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>12124</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>720</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>648</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3646</v>
-      </c>
-      <c r="U20" t="n">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1837</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>241</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1421</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2871</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1482</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5290</v>
-      </c>
-      <c r="M21" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13328</v>
-      </c>
-      <c r="O21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>764</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>6</v>
-      </c>
-      <c r="R21" t="n">
-        <v>713</v>
-      </c>
-      <c r="S21" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3998</v>
-      </c>
-      <c r="U21" t="n">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1841</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>224</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1418</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2962</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1309</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5190</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="N22" t="n">
-        <v>13713</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>768</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>713</v>
-      </c>
-      <c r="S22" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4479</v>
-      </c>
-      <c r="U22" t="n">
-        <v>12</v>
+        <v>5.48409508371715</v>
       </c>
     </row>
   </sheetData>
